--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/38.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/38.xlsx
@@ -479,13 +479,13 @@
         <v>-0.01826802438255804</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.60513500415996</v>
+        <v>-1.60678064115128</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06113737784016089</v>
+        <v>0.06171504285767825</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1875529212679839</v>
+        <v>-0.1850549529224797</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.01083404508564026</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.540864655399011</v>
+        <v>-1.541779160508486</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08711656343722875</v>
+        <v>0.08766117405319879</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1888231546988735</v>
+        <v>-0.186825724433943</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.0384261919926679</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.647480840580313</v>
+        <v>-1.647727174572796</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09999518788771097</v>
+        <v>0.09967408798696563</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1866399901776295</v>
+        <v>-0.1840585988186964</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.06276856629309639</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.695789061432152</v>
+        <v>-1.696539868553012</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1424024110537941</v>
+        <v>0.1425424987555899</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2174923389742442</v>
+        <v>-0.215014832877317</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.08960492366614854</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.781873741195208</v>
+        <v>-1.784749474129824</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2302940647681032</v>
+        <v>0.2295227953986659</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2665497929278228</v>
+        <v>-0.2647585591677826</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1230736486239585</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.708239552681641</v>
+        <v>-1.711297871834328</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3037126126620525</v>
+        <v>0.304683782459895</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2770862769258096</v>
+        <v>-0.2758128954566774</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1652820100752583</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.538521727936955</v>
+        <v>-1.540911088963089</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3743923672849386</v>
+        <v>0.3743530168069061</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2796708163229853</v>
+        <v>-0.2781046672972912</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2152678874798918</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.18272178865298</v>
+        <v>-1.18223777777318</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4047709363260418</v>
+        <v>0.4036612528455248</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2751738436934293</v>
+        <v>-0.2748307075249857</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2725939825851798</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7853150149261034</v>
+        <v>-0.7845390234993023</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4438632752226657</v>
+        <v>0.4420657453861404</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2358941965213706</v>
+        <v>-0.2349009904558299</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3398732687767654</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2598680817579014</v>
+        <v>-0.2585175733518254</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4154900065420996</v>
+        <v>0.4130282406363853</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1780584379282981</v>
+        <v>-0.1771659690865206</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4189996056296021</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3112962367884792</v>
+        <v>0.3121713914199224</v>
       </c>
       <c r="F12" t="n">
-        <v>0.289497645977586</v>
+        <v>0.2867824629933423</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1242269839798146</v>
+        <v>-0.1234651587251051</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5086180175709066</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8936549793255503</v>
+        <v>0.8947914211311294</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09423742594199305</v>
+        <v>0.09109725779499818</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01080316609888705</v>
+        <v>-0.009860328645227933</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6080422497792348</v>
       </c>
       <c r="E14" t="n">
-        <v>1.597018015831733</v>
+        <v>1.599793011542586</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0130998882771852</v>
+        <v>0.008768187655365706</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08681907382330291</v>
+        <v>0.08776978137256852</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7178607496448899</v>
       </c>
       <c r="E15" t="n">
-        <v>2.262182756302191</v>
+        <v>2.266989810698643</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1297454950190948</v>
+        <v>-0.1333987933996337</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2037639724785801</v>
+        <v>0.2041999757751804</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8395373297282075</v>
       </c>
       <c r="E16" t="n">
-        <v>2.862844193181746</v>
+        <v>2.86704839825474</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2557016531438184</v>
+        <v>-0.2608801760528977</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3073627630043488</v>
+        <v>0.308285138209431</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9735862727915487</v>
       </c>
       <c r="E17" t="n">
-        <v>3.399494994455367</v>
+        <v>3.402060645623087</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.368099210557658</v>
+        <v>-0.3742378851307306</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3924699768930769</v>
+        <v>0.3933734638687036</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.11891547771869</v>
       </c>
       <c r="E18" t="n">
-        <v>3.872034422899289</v>
+        <v>3.875723923719617</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5469140788139013</v>
+        <v>-0.5540774398349407</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4889069804169275</v>
+        <v>0.4899899055723824</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.275046787948145</v>
       </c>
       <c r="E19" t="n">
-        <v>4.247850376339284</v>
+        <v>4.252503176861849</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.748580556673188</v>
+        <v>-0.7563420449603218</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6106085648567754</v>
+        <v>0.6127460828235017</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.438616339702935</v>
       </c>
       <c r="E20" t="n">
-        <v>4.523522511224765</v>
+        <v>4.52873251451627</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9562912679582694</v>
+        <v>-0.9664161459560361</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7171240128143143</v>
+        <v>0.7193292136032565</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.607074678088805</v>
       </c>
       <c r="E21" t="n">
-        <v>4.731694410112387</v>
+        <v>4.738410749702977</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.077000433342137</v>
+        <v>-1.087780103294365</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8603314205084934</v>
+        <v>0.8624295879971873</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.773205738193561</v>
       </c>
       <c r="E22" t="n">
-        <v>4.878630669104927</v>
+        <v>4.885003872527074</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.245126137745628</v>
+        <v>-1.25546429533433</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9613110432164177</v>
+        <v>0.9648179578186756</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.926771854817515</v>
       </c>
       <c r="E23" t="n">
-        <v>4.925113027776058</v>
+        <v>4.93202454573769</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.49595552883962</v>
+        <v>-1.507136573667779</v>
       </c>
       <c r="G23" t="n">
-        <v>1.014604182625416</v>
+        <v>1.01739177048924</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.060332125690512</v>
       </c>
       <c r="E24" t="n">
-        <v>4.974850457990039</v>
+        <v>4.982150758674631</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.703824429046392</v>
+        <v>-1.715010195931915</v>
       </c>
       <c r="G24" t="n">
-        <v>1.111198588061397</v>
+        <v>1.114995122181974</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.170987999316284</v>
       </c>
       <c r="E25" t="n">
-        <v>4.941191633100145</v>
+        <v>4.948455731344947</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.86469862735805</v>
+        <v>-1.879191408417426</v>
       </c>
       <c r="G25" t="n">
-        <v>1.158505732752089</v>
+        <v>1.162363653618397</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.25737331569669</v>
       </c>
       <c r="E26" t="n">
-        <v>4.929414822034573</v>
+        <v>4.937766567492194</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.926541838633954</v>
+        <v>-1.940093356258793</v>
       </c>
       <c r="G26" t="n">
-        <v>1.187656566878578</v>
+        <v>1.192361310032146</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.318697540960631</v>
       </c>
       <c r="E27" t="n">
-        <v>4.835175149204058</v>
+        <v>4.841532612434992</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.01296571951765</v>
+        <v>-2.027456139548344</v>
       </c>
       <c r="G27" t="n">
-        <v>1.207800863592984</v>
+        <v>1.212170340673715</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.355372626104313</v>
       </c>
       <c r="E28" t="n">
-        <v>4.717979981508494</v>
+        <v>4.72506621559259</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.07813168515862</v>
+        <v>-2.092815709541234</v>
       </c>
       <c r="G28" t="n">
-        <v>1.196253859319122</v>
+        <v>1.199655314640253</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.367345518476298</v>
       </c>
       <c r="E29" t="n">
-        <v>4.595274172869257</v>
+        <v>4.602270687863438</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.171440325678886</v>
+        <v>-2.185621450952244</v>
       </c>
       <c r="G29" t="n">
-        <v>1.161674233243267</v>
+        <v>1.164923008709632</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.353430531082134</v>
       </c>
       <c r="E30" t="n">
-        <v>4.491848524446831</v>
+        <v>4.497960440694841</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.174007550865727</v>
+        <v>-2.187657444685647</v>
       </c>
       <c r="G30" t="n">
-        <v>1.11483299821248</v>
+        <v>1.118239175590975</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.316669624707534</v>
       </c>
       <c r="E31" t="n">
-        <v>4.304891255276099</v>
+        <v>4.310567168227509</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.138618091951963</v>
+        <v>-2.151455791905291</v>
       </c>
       <c r="G31" t="n">
-        <v>1.048642346123544</v>
+        <v>1.051429933987367</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.258903540501014</v>
       </c>
       <c r="E32" t="n">
-        <v>4.119613464507795</v>
+        <v>4.124019144028316</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.05690525029832</v>
+        <v>-2.069557215995335</v>
       </c>
       <c r="G32" t="n">
-        <v>1.021764395608213</v>
+        <v>1.023728771471597</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.181059452992019</v>
       </c>
       <c r="E33" t="n">
-        <v>3.903824887092199</v>
+        <v>3.908583146895891</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.001080301132709</v>
+        <v>-2.013155388821767</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9399673439315804</v>
+        <v>0.9424495720858715</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.087493939847964</v>
       </c>
       <c r="E34" t="n">
-        <v>3.690047906113624</v>
+        <v>3.693984527935998</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.901636921087174</v>
+        <v>-1.913861540592756</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8491968092444123</v>
+        <v>0.8513768257274138</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.983285873714326</v>
       </c>
       <c r="E35" t="n">
-        <v>3.450839498192195</v>
+        <v>3.455899969667177</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.837897803779663</v>
+        <v>-1.850206633308235</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7798266385304484</v>
+        <v>0.7815753737742135</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.870991038196382</v>
       </c>
       <c r="E36" t="n">
-        <v>3.216823779351937</v>
+        <v>3.222694870674388</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.756368335353652</v>
+        <v>-1.76795941216291</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7268451549074673</v>
+        <v>0.7287434219677559</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.75456606261268</v>
       </c>
       <c r="E37" t="n">
-        <v>3.030439453141358</v>
+        <v>3.038213533581462</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.681775569195212</v>
+        <v>-1.692596163644594</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6657574728097876</v>
+        <v>0.6676683320230467</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.639071868507849</v>
       </c>
       <c r="E38" t="n">
-        <v>2.79647252889386</v>
+        <v>2.802444357440075</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.613753545858642</v>
+        <v>-1.625222636186</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5856587877650382</v>
+        <v>0.5876845503741521</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.526508326459396</v>
       </c>
       <c r="E39" t="n">
-        <v>2.548084441457005</v>
+        <v>2.554336445406811</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.563185820558176</v>
+        <v>-1.574210250483766</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5278434914205427</v>
+        <v>0.5302281303893132</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.417273225200065</v>
       </c>
       <c r="E40" t="n">
-        <v>2.30221321059511</v>
+        <v>2.308525027271525</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.493490614895663</v>
+        <v>-1.501826620162072</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5006208307176472</v>
+        <v>0.5028244574874682</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.313888534031595</v>
       </c>
       <c r="E41" t="n">
-        <v>2.100779687565776</v>
+        <v>2.106742071997262</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.470291934076373</v>
+        <v>-1.478242304658063</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4274604219595913</v>
+        <v>0.429464148301007</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.215963727837362</v>
       </c>
       <c r="E42" t="n">
-        <v>1.896349232129485</v>
+        <v>1.901571827573961</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.435196816738292</v>
+        <v>-1.444075858601549</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4110843270215789</v>
+        <v>0.413283231734036</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.121717390633009</v>
       </c>
       <c r="E43" t="n">
-        <v>1.75117430053368</v>
+        <v>1.756067925981804</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.400292942723449</v>
+        <v>-1.409349848747413</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3659225703932196</v>
+        <v>0.3677610247268988</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.032099904329265</v>
       </c>
       <c r="E44" t="n">
-        <v>1.516146487398425</v>
+        <v>1.520171254291591</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.360337254338792</v>
+        <v>-1.369206852087322</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3127978510302001</v>
+        <v>0.3147354685685212</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9468027001909484</v>
       </c>
       <c r="E45" t="n">
-        <v>1.317753969311444</v>
+        <v>1.320639146360788</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.305778603556268</v>
+        <v>-1.31321190885661</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2957543719847562</v>
+        <v>0.2977832826321128</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8651244653092418</v>
       </c>
       <c r="E46" t="n">
-        <v>1.158181484813101</v>
+        <v>1.161276006405578</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.26053421092404</v>
+        <v>-1.270220724596524</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2727500825269467</v>
+        <v>0.2749127847996138</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7863787327084278</v>
       </c>
       <c r="E47" t="n">
-        <v>1.01111143419525</v>
+        <v>1.014322433202704</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.182270832174727</v>
+        <v>-1.191044414756857</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2437834086376501</v>
+        <v>0.2457776908643381</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7113722669989957</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8632842803800534</v>
+        <v>0.8661883456588533</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.163376306642634</v>
+        <v>-1.173870292124345</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2043479335725827</v>
+        <v>0.2055394660474073</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6397452455208034</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7330279020159364</v>
+        <v>0.7361602000673247</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.082389874813471</v>
+        <v>-1.092236938436328</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1646999659261396</v>
+        <v>0.1662063022252244</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5712212352219304</v>
       </c>
       <c r="E50" t="n">
-        <v>0.599796627512561</v>
+        <v>0.6029824422140736</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.025134929276158</v>
+        <v>-1.034856858378872</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1221526550582608</v>
+        <v>0.1235031634643367</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5073289407913739</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4819687041302341</v>
+        <v>0.4843250107548212</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9639236866774564</v>
+        <v>-0.9719480361578473</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1017014246152009</v>
+        <v>0.1033163682336554</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4485177954807239</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3627713841123756</v>
+        <v>0.3660689541715005</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9375407651757749</v>
+        <v>-0.9457233035778566</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05974437091780978</v>
+        <v>0.06087766468514628</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3941896244330162</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2032901927230686</v>
+        <v>0.2067152583310189</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9185478634486002</v>
+        <v>-0.9261102383168893</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02250937458432071</v>
+        <v>0.02368359284881102</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3444572685492758</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1000046320024388</v>
+        <v>0.1042261512857672</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8710974830178697</v>
+        <v>-0.8785339363564547</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01439035567633131</v>
+        <v>-0.0125424572279243</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2993760879141693</v>
       </c>
       <c r="E55" t="n">
-        <v>0.004848880043326995</v>
+        <v>0.0108049683983288</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8444524873324917</v>
+        <v>-0.8515804329233018</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04262825871246565</v>
+        <v>-0.0411234964325022</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2579539558581206</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.09227282179828934</v>
+        <v>-0.08671810831921922</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8425683864442947</v>
+        <v>-0.8496199921077218</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04848833190106811</v>
+        <v>-0.04723698669963407</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2194385721731527</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2257606614184368</v>
+        <v>-0.2207300963067598</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8305987580363636</v>
+        <v>-0.8368003933742884</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09049260617209827</v>
+        <v>-0.08831731174646072</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1834406436909473</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3140143395306451</v>
+        <v>-0.3092781159946513</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7799397396268616</v>
+        <v>-0.7858769397524078</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1224278801241679</v>
+        <v>-0.1197111231208029</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.148947422745016</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4343197690098992</v>
+        <v>-0.4303485187668576</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.833042422722183</v>
+        <v>-0.8393825717427821</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.149538785469451</v>
+        <v>-0.1471226661182544</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.115428641401929</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4951902364688394</v>
+        <v>-0.4902588345618044</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8050563627454567</v>
+        <v>-0.8108802334942693</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1680209179917636</v>
+        <v>-0.1654017501739193</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.08259572211430882</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5951184144037349</v>
+        <v>-0.589695918530854</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8243554111917244</v>
+        <v>-0.8298998935465061</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2009588421241018</v>
+        <v>-0.1982798615796481</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.04991595967676489</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6844062230786376</v>
+        <v>-0.6777733065014766</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8662243198183227</v>
+        <v>-0.8713634922493695</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2261510181605194</v>
+        <v>-0.2228235417380897</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.01670195995984478</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7682148711922928</v>
+        <v>-0.7622776710667466</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8675480698993366</v>
+        <v>-0.8725062301314338</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2398937791085957</v>
+        <v>-0.2359854896304061</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.0170172358031459</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8180908150889477</v>
+        <v>-0.8119584365923602</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8753504826836241</v>
+        <v>-0.8803802607857405</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2668268202931717</v>
+        <v>-0.2632600929643044</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.05097296908750869</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.895605747746082</v>
+        <v>-0.8890798644691694</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8782466778668174</v>
+        <v>-0.8832709469020091</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.27876890336648</v>
+        <v>-0.2752273603435535</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.08436880718970032</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9240947068320639</v>
+        <v>-0.9164615011033161</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8889334806908884</v>
+        <v>-0.8941914915655933</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2932136768426564</v>
+        <v>-0.2883845861785059</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1155015671732577</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9943242919862579</v>
+        <v>-0.9863857265479778</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8643567461308995</v>
+        <v>-0.869489622485461</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2868593616499656</v>
+        <v>-0.2818461107486229</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1421739074766936</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.01552869057886</v>
+        <v>-1.008226815875146</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.919536347456777</v>
+        <v>-0.9247463507482823</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3084926804531222</v>
+        <v>-0.3032118463011584</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1624889694704456</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.027513272168443</v>
+        <v>-1.020569486814826</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9001349877676248</v>
+        <v>-0.9055157721337912</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3255330114603235</v>
+        <v>-0.3206079056297736</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1748741983239587</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.031247632533729</v>
+        <v>-1.023978025222002</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9340755620802315</v>
+        <v>-0.9397884644809923</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3253299629936757</v>
+        <v>-0.3200821832432592</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1782520037308088</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9978052352730143</v>
+        <v>-0.9904537789669795</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9779749553733077</v>
+        <v>-0.9842962161644512</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3217286072441397</v>
+        <v>-0.3161644496503418</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1721211855854489</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9346894295375388</v>
+        <v>-0.9267178096977114</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.035740670115482</v>
+        <v>-1.041071085869767</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2950411130424865</v>
+        <v>-0.2894187167412005</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1564026782960967</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8645621556262292</v>
+        <v>-0.8568793682951605</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.072948908123909</v>
+        <v>-1.07755999713976</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2989179221382501</v>
+        <v>-0.2945940916120371</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1319100365847945</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8059818859887815</v>
+        <v>-0.7983494672695944</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.118054000063902</v>
+        <v>-1.123449737611721</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2956911829395837</v>
+        <v>-0.2917435429833616</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.09955992561963634</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6823962006607367</v>
+        <v>-0.6752076553337565</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.159154000349745</v>
+        <v>-1.165604330708835</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2645114381657384</v>
+        <v>-0.259756326400289</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.06080705414103968</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5394721164083917</v>
+        <v>-0.5318696040525094</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.221426131836203</v>
+        <v>-1.228340797836077</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2345043376372621</v>
+        <v>-0.2297067273555376</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.01760209214708557</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4190864119539511</v>
+        <v>-0.4116397274910776</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.220479359334741</v>
+        <v>-1.227652164470508</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1966680659994361</v>
+        <v>-0.1919554527502619</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.0282092459999171</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2841599188569349</v>
+        <v>-0.2773160837175195</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.253826528438617</v>
+        <v>-1.260806516232025</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.175220481452593</v>
+        <v>-0.1707266568612795</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.07481898263446476</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1365263693936582</v>
+        <v>-0.1294118029653791</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.275009677773082</v>
+        <v>-1.282530341134656</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1387268481252366</v>
+        <v>-0.1341354343484024</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1198750495741015</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004940173152362434</v>
+        <v>0.01151170298379281</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.261497510626276</v>
+        <v>-1.269042571284231</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1116364050285304</v>
+        <v>-0.1072417436418589</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1617454898848446</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1584951825499723</v>
+        <v>0.1635414878528623</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.30132885150035</v>
+        <v>-1.309008490793177</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.09281900643338069</v>
+        <v>-0.08853924844256411</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1985068937145644</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2698302770569339</v>
+        <v>0.2745208540384099</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.305759715326812</v>
+        <v>-1.311718951720056</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02094142325918478</v>
+        <v>-0.01700794947505435</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2293689984077222</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4315827780382778</v>
+        <v>0.4364543672187034</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.284284585445346</v>
+        <v>-1.290699500374207</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.008363436460870979</v>
+        <v>-0.004697545927361677</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2533131796533133</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5648250706755022</v>
+        <v>0.5688986321614284</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.285131407732606</v>
+        <v>-1.291059163743424</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07256003460343999</v>
+        <v>0.07658165345836324</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2693924390315823</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7027784025427798</v>
+        <v>0.7069715894819248</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.233394973234573</v>
+        <v>-1.239155883218534</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1125542864565692</v>
+        <v>0.1161587902443477</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2762842867078796</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8886889489978466</v>
+        <v>0.8937934930082247</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.193643907335685</v>
+        <v>-1.199267090646532</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1567621874974203</v>
+        <v>0.1605429814267845</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2722322240983333</v>
       </c>
       <c r="E87" t="n">
-        <v>1.01134124098696</v>
+        <v>1.016348195811818</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.060124587333112</v>
+        <v>-1.064735676348962</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1874870407452097</v>
+        <v>0.1901392629646013</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2557014056533466</v>
       </c>
       <c r="E88" t="n">
-        <v>1.146486522741837</v>
+        <v>1.150981921352272</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9459672765416581</v>
+        <v>-0.9501927308727899</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2192727828807558</v>
+        <v>0.2217644551497748</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2252701180429726</v>
       </c>
       <c r="E89" t="n">
-        <v>1.251257957512975</v>
+        <v>1.256120102578673</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8611835235823573</v>
+        <v>-0.8649517253587511</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2311928296863659</v>
+        <v>0.2337474627202369</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1804585129150901</v>
       </c>
       <c r="E90" t="n">
-        <v>1.328778399237034</v>
+        <v>1.333624804111519</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7448690195851611</v>
+        <v>-0.7485191699274573</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1986641505255659</v>
+        <v>0.200172060843772</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1215294247702328</v>
       </c>
       <c r="E91" t="n">
-        <v>1.320264529809918</v>
+        <v>1.324035879624555</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6042193929630955</v>
+        <v>-0.6094042119486599</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1937280265611669</v>
+        <v>0.1949526134375389</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04959595367611161</v>
       </c>
       <c r="E92" t="n">
-        <v>1.306625654123848</v>
+        <v>1.309441574331855</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4726329684414792</v>
+        <v>-0.4777233462797656</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1688034337753705</v>
+        <v>0.1701366279711122</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.0327269669558106</v>
       </c>
       <c r="E93" t="n">
-        <v>1.276212456662076</v>
+        <v>1.277854158605592</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3369824265486647</v>
+        <v>-0.3419972514691287</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1620382995920202</v>
+        <v>0.1626505930302062</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1194548084890539</v>
       </c>
       <c r="E94" t="n">
-        <v>1.195240191005005</v>
+        <v>1.196845690508731</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1881132720751669</v>
+        <v>-0.1925771903031757</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1433247862588763</v>
+        <v>0.1447114971047422</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2044292361971696</v>
       </c>
       <c r="E95" t="n">
-        <v>1.16269419763387</v>
+        <v>1.164180071684378</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09574195994163606</v>
+        <v>-0.09973367243325461</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1253479138745011</v>
+        <v>0.1263710263033466</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.281447664008496</v>
       </c>
       <c r="E96" t="n">
-        <v>1.121843679378754</v>
+        <v>1.123299647065957</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01094505610012456</v>
+        <v>0.007479065995020444</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05738176821673745</v>
+        <v>0.05806174447713935</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.346656248127138</v>
       </c>
       <c r="E97" t="n">
-        <v>1.027122356697121</v>
+        <v>1.027385217890378</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06668422122362451</v>
+        <v>0.06439402340213202</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0327908674846568</v>
+        <v>0.03270587045210657</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4005277905635699</v>
       </c>
       <c r="E98" t="n">
-        <v>1.002619601035833</v>
+        <v>1.002666821609472</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1003635083620953</v>
+        <v>0.09891698478961999</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.00651238997422137</v>
+        <v>-0.007008205997431086</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.444773497507238</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9778870385828353</v>
+        <v>0.978142029680486</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1655247519457012</v>
+        <v>0.1651532834330743</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02414455217103167</v>
+        <v>-0.02560524191559871</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4842531364659566</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8873589028403476</v>
+        <v>0.8876579664733947</v>
       </c>
       <c r="F100" t="n">
-        <v>0.154300421591706</v>
+        <v>0.153352862080683</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03489982482687928</v>
+        <v>-0.03643606748926875</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.518926005281887</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8057759177642115</v>
+        <v>0.8061820146975072</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1420089062734689</v>
+        <v>0.141601235321052</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0638145560851729</v>
+        <v>-0.06527367181061865</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5544064875729169</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6834116712742961</v>
+        <v>0.6847637536994934</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1370239877163096</v>
+        <v>0.1377590546459571</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0816418966530245</v>
+        <v>-0.08252806941831678</v>
       </c>
     </row>
   </sheetData>
